--- a/user_input/pole_data_make_ready.xlsx
+++ b/user_input/pole_data_make_ready.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04ef7c6c9ce6ee46/Documents/GitHub/pole-permit-spreadsheet/user_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{31E7641B-5681-4E7A-B504-6E8658E7AE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4926E3B4-B58B-4812-9F73-085A3982B626}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{31E7641B-5681-4E7A-B504-6E8658E7AE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429934B1-FED7-4DD4-BEAD-0973287E41B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="2010" windowWidth="21420" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Appendix A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
   <si>
     <t>Wireline Joint Use - Appendix A</t>
   </si>
@@ -234,6 +234,10 @@
   <si>
     <t>Dress Drip Loop
 Ground Streetlight</t>
+  </si>
+  <si>
+    <t>Extend Primary Riser to: 35' 00"
+An unrecognizable comment</t>
   </si>
 </sst>
 </file>
@@ -824,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1159,9 @@
         <v>2701</v>
       </c>
       <c r="P10" s="17"/>
-      <c r="Q10" s="23"/>
+      <c r="Q10" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="R10" s="18" t="s">
         <v>35</v>
       </c>

--- a/user_input/pole_data_make_ready.xlsx
+++ b/user_input/pole_data_make_ready.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04ef7c6c9ce6ee46/Documents/GitHub/pole-permit-spreadsheet/user_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{31E7641B-5681-4E7A-B504-6E8658E7AE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429934B1-FED7-4DD4-BEAD-0973287E41B2}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{31E7641B-5681-4E7A-B504-6E8658E7AE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2CDC43-F241-42D3-91B3-E51FAE940653}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2010" windowWidth="21420" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="795" windowWidth="21420" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Appendix A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>Wireline Joint Use - Appendix A</t>
   </si>
@@ -234,10 +234,6 @@
   <si>
     <t>Dress Drip Loop
 Ground Streetlight</t>
-  </si>
-  <si>
-    <t>Extend Primary Riser to: 35' 00"
-An unrecognizable comment</t>
   </si>
 </sst>
 </file>
@@ -828,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J9" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1159,9 +1155,7 @@
         <v>2701</v>
       </c>
       <c r="P10" s="17"/>
-      <c r="Q10" s="23" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q10" s="23"/>
       <c r="R10" s="18" t="s">
         <v>35</v>
       </c>
